--- a/labels/fruitfly_annotationfile.xlsx
+++ b/labels/fruitfly_annotationfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://landcareresearch-my.sharepoint.com/personal/harmera_landcareresearch_co_nz/Documents/repos/tephritidML/labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{ECF2CE16-BCA5-4BD6-8B4C-BF585C9B16F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C9ED752-4927-4651-A746-11C079B7DFC9}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{ECF2CE16-BCA5-4BD6-8B4C-BF585C9B16F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E797E53-C3C1-458D-851E-2E7B03A6515A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{368D8AC6-1C36-4B76-9FDE-DEBFC3DFA8FD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{368D8AC6-1C36-4B76-9FDE-DEBFC3DFA8FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fruitfly images combined" sheetId="4" r:id="rId1"/>
@@ -4836,6 +4836,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5135,33 +5139,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C0BDAE-B352-4827-B1B0-483150E67553}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J871"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="15.1796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="2"/>
-    <col min="12" max="12" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="2"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>679</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -5397,7 +5400,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -5771,7 +5774,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>106</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>108</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>115</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>118</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>134</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>136</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>139</v>
       </c>
@@ -6621,7 +6624,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>140</v>
       </c>
@@ -6655,7 +6658,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>141</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>144</v>
       </c>
@@ -6791,7 +6794,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>197</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>198</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>199</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>200</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>201</v>
       </c>
@@ -6961,7 +6964,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>202</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>203</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>204</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>205</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>206</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>207</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>208</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>209</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>210</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>184</v>
       </c>
@@ -7301,7 +7304,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>185</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>186</v>
       </c>
@@ -7369,7 +7372,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>187</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>164</v>
       </c>
@@ -7437,7 +7440,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>165</v>
       </c>
@@ -7471,7 +7474,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>166</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>167</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>168</v>
       </c>
@@ -7573,7 +7576,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>169</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>170</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -7675,7 +7678,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>173</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>211</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>212</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>213</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>214</v>
       </c>
@@ -7879,7 +7882,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>125</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>225</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>226</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>227</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>228</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>229</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>126</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>127</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>128</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>129</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>130</v>
       </c>
@@ -8253,7 +8256,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>174</v>
       </c>
@@ -8287,7 +8290,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>175</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>176</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>177</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>178</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>179</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>180</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>181</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>182</v>
       </c>
@@ -8559,7 +8562,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>183</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>215</v>
       </c>
@@ -8627,7 +8630,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>216</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>217</v>
       </c>
@@ -8695,7 +8698,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>218</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>220</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>221</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>222</v>
       </c>
@@ -8865,7 +8868,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>223</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>224</v>
       </c>
@@ -8933,7 +8936,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>131</v>
       </c>
@@ -8967,7 +8970,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>132</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>133</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>154</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>155</v>
       </c>
@@ -9103,7 +9106,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>156</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>157</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>158</v>
       </c>
@@ -9205,7 +9208,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>159</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>160</v>
       </c>
@@ -9273,7 +9276,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>161</v>
       </c>
@@ -9307,7 +9310,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>162</v>
       </c>
@@ -9341,7 +9344,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>163</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>145</v>
       </c>
@@ -9409,7 +9412,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>146</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -9511,7 +9514,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -9545,7 +9548,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>150</v>
       </c>
@@ -9579,7 +9582,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>151</v>
       </c>
@@ -9613,7 +9616,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>152</v>
       </c>
@@ -9647,7 +9650,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>153</v>
       </c>
@@ -9681,7 +9684,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>188</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>189</v>
       </c>
@@ -9749,7 +9752,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>190</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>191</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>192</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>193</v>
       </c>
@@ -9885,7 +9888,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>194</v>
       </c>
@@ -9919,7 +9922,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>195</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>196</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>28</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>29</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>30</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>31</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>32</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>33</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>34</v>
       </c>
@@ -10225,7 +10228,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>35</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>36</v>
       </c>
@@ -10293,7 +10296,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>37</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>95</v>
       </c>
@@ -10395,7 +10398,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>97</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>98</v>
       </c>
@@ -10463,7 +10466,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>101</v>
       </c>
@@ -10497,7 +10500,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>105</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>113</v>
       </c>
@@ -10565,7 +10568,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>116</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>119</v>
       </c>
@@ -10633,7 +10636,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>92</v>
       </c>
@@ -10667,7 +10670,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>96</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>99</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>100</v>
       </c>
@@ -10769,7 +10772,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>102</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>103</v>
       </c>
@@ -10837,7 +10840,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>107</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>114</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>117</v>
       </c>
@@ -10939,7 +10942,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>120</v>
       </c>
@@ -10973,7 +10976,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>230</v>
       </c>
@@ -11004,7 +11007,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>231</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>232</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>233</v>
       </c>
@@ -11097,7 +11100,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>234</v>
       </c>
@@ -11128,7 +11131,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>235</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>236</v>
       </c>
@@ -11190,7 +11193,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>237</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>238</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>239</v>
       </c>
@@ -11283,7 +11286,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>240</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>241</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>242</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>243</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>244</v>
       </c>
@@ -11441,7 +11444,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>245</v>
       </c>
@@ -11472,7 +11475,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>246</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>247</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>248</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>249</v>
       </c>
@@ -11596,7 +11599,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>250</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>251</v>
       </c>
@@ -11658,7 +11661,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>252</v>
       </c>
@@ -11689,7 +11692,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>253</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>254</v>
       </c>
@@ -11751,7 +11754,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>255</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>256</v>
       </c>
@@ -11813,7 +11816,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>257</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>258</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>259</v>
       </c>
@@ -11906,7 +11909,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>260</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>261</v>
       </c>
@@ -11968,7 +11971,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>262</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>263</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>264</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>265</v>
       </c>
@@ -12092,7 +12095,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>266</v>
       </c>
@@ -12123,7 +12126,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>267</v>
       </c>
@@ -12154,7 +12157,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>268</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>269</v>
       </c>
@@ -12216,7 +12219,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>270</v>
       </c>
@@ -12247,7 +12250,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>271</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
@@ -12309,7 +12312,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>273</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>274</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>275</v>
       </c>
@@ -12402,7 +12405,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>276</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>277</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>278</v>
       </c>
@@ -12495,7 +12498,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>279</v>
       </c>
@@ -12526,7 +12529,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>280</v>
       </c>
@@ -12557,7 +12560,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>281</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>282</v>
       </c>
@@ -12619,7 +12622,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>283</v>
       </c>
@@ -12650,7 +12653,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>284</v>
       </c>
@@ -12681,7 +12684,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>285</v>
       </c>
@@ -12712,7 +12715,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>286</v>
       </c>
@@ -12743,7 +12746,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>287</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>288</v>
       </c>
@@ -12805,7 +12808,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>289</v>
       </c>
@@ -12836,7 +12839,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>290</v>
       </c>
@@ -12867,7 +12870,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>291</v>
       </c>
@@ -12898,7 +12901,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>292</v>
       </c>
@@ -12929,7 +12932,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>293</v>
       </c>
@@ -12960,7 +12963,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>294</v>
       </c>
@@ -12991,7 +12994,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>295</v>
       </c>
@@ -13022,7 +13025,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>296</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>297</v>
       </c>
@@ -13084,7 +13087,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>298</v>
       </c>
@@ -13115,7 +13118,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>299</v>
       </c>
@@ -13146,7 +13149,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>300</v>
       </c>
@@ -13177,7 +13180,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>301</v>
       </c>
@@ -13208,7 +13211,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>302</v>
       </c>
@@ -13239,7 +13242,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>303</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>304</v>
       </c>
@@ -13301,7 +13304,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>305</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>306</v>
       </c>
@@ -13363,7 +13366,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>307</v>
       </c>
@@ -13394,7 +13397,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>308</v>
       </c>
@@ -13425,7 +13428,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>309</v>
       </c>
@@ -13456,7 +13459,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>310</v>
       </c>
@@ -13487,7 +13490,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>311</v>
       </c>
@@ -13518,7 +13521,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>312</v>
       </c>
@@ -13549,7 +13552,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>313</v>
       </c>
@@ -13580,7 +13583,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>314</v>
       </c>
@@ -13611,7 +13614,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>315</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>316</v>
       </c>
@@ -13673,7 +13676,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>317</v>
       </c>
@@ -13704,7 +13707,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>318</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>319</v>
       </c>
@@ -13766,7 +13769,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>320</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>321</v>
       </c>
@@ -13828,7 +13831,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>322</v>
       </c>
@@ -13859,7 +13862,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>323</v>
       </c>
@@ -13890,7 +13893,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>324</v>
       </c>
@@ -13921,7 +13924,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>325</v>
       </c>
@@ -13952,7 +13955,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>326</v>
       </c>
@@ -13983,7 +13986,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>327</v>
       </c>
@@ -14014,7 +14017,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>328</v>
       </c>
@@ -14045,7 +14048,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>329</v>
       </c>
@@ -14076,7 +14079,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>330</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>331</v>
       </c>
@@ -14138,7 +14141,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>332</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>333</v>
       </c>
@@ -14200,7 +14203,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>334</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>335</v>
       </c>
@@ -14262,7 +14265,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>336</v>
       </c>
@@ -14293,7 +14296,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>337</v>
       </c>
@@ -14324,7 +14327,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>338</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>339</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>340</v>
       </c>
@@ -14417,7 +14420,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>341</v>
       </c>
@@ -14448,7 +14451,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>342</v>
       </c>
@@ -14479,7 +14482,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>343</v>
       </c>
@@ -14510,7 +14513,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>344</v>
       </c>
@@ -14541,7 +14544,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>345</v>
       </c>
@@ -14572,7 +14575,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>346</v>
       </c>
@@ -14603,7 +14606,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>347</v>
       </c>
@@ -14634,7 +14637,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>348</v>
       </c>
@@ -14665,7 +14668,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>349</v>
       </c>
@@ -14696,7 +14699,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>350</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>351</v>
       </c>
@@ -14758,7 +14761,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>352</v>
       </c>
@@ -14789,7 +14792,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>353</v>
       </c>
@@ -14820,7 +14823,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>354</v>
       </c>
@@ -14851,7 +14854,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>355</v>
       </c>
@@ -14882,7 +14885,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>356</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>357</v>
       </c>
@@ -14944,7 +14947,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>358</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>359</v>
       </c>
@@ -15006,7 +15009,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -15037,7 +15040,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>361</v>
       </c>
@@ -15068,7 +15071,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>362</v>
       </c>
@@ -15099,7 +15102,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>363</v>
       </c>
@@ -15130,7 +15133,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>364</v>
       </c>
@@ -15161,7 +15164,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>365</v>
       </c>
@@ -15192,7 +15195,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>366</v>
       </c>
@@ -15223,7 +15226,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>367</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>368</v>
       </c>
@@ -15285,7 +15288,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>369</v>
       </c>
@@ -15316,7 +15319,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>370</v>
       </c>
@@ -15347,7 +15350,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>371</v>
       </c>
@@ -15378,7 +15381,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>372</v>
       </c>
@@ -15409,7 +15412,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>373</v>
       </c>
@@ -15440,7 +15443,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>374</v>
       </c>
@@ -15471,7 +15474,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>375</v>
       </c>
@@ -15502,7 +15505,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>376</v>
       </c>
@@ -15533,7 +15536,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>377</v>
       </c>
@@ -15564,7 +15567,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>378</v>
       </c>
@@ -15595,7 +15598,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>379</v>
       </c>
@@ -15626,7 +15629,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>380</v>
       </c>
@@ -15657,7 +15660,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>381</v>
       </c>
@@ -15688,7 +15691,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>382</v>
       </c>
@@ -15719,7 +15722,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>383</v>
       </c>
@@ -15750,7 +15753,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>384</v>
       </c>
@@ -15781,7 +15784,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>385</v>
       </c>
@@ -15812,7 +15815,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>386</v>
       </c>
@@ -15843,7 +15846,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>387</v>
       </c>
@@ -15874,7 +15877,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>388</v>
       </c>
@@ -15905,7 +15908,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>389</v>
       </c>
@@ -15936,7 +15939,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>390</v>
       </c>
@@ -15967,7 +15970,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>391</v>
       </c>
@@ -15998,7 +16001,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>392</v>
       </c>
@@ -16029,7 +16032,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>393</v>
       </c>
@@ -16060,7 +16063,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>394</v>
       </c>
@@ -16091,7 +16094,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>395</v>
       </c>
@@ -16122,7 +16125,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>396</v>
       </c>
@@ -16153,7 +16156,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>397</v>
       </c>
@@ -16184,7 +16187,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>398</v>
       </c>
@@ -16215,7 +16218,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>399</v>
       </c>
@@ -16246,7 +16249,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>400</v>
       </c>
@@ -16277,7 +16280,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>401</v>
       </c>
@@ -16308,7 +16311,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>402</v>
       </c>
@@ -16339,7 +16342,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>403</v>
       </c>
@@ -16370,7 +16373,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>404</v>
       </c>
@@ -16401,7 +16404,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>405</v>
       </c>
@@ -16432,7 +16435,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>406</v>
       </c>
@@ -16463,7 +16466,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>407</v>
       </c>
@@ -16494,7 +16497,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>408</v>
       </c>
@@ -16525,7 +16528,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>409</v>
       </c>
@@ -16556,7 +16559,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>410</v>
       </c>
@@ -16587,7 +16590,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>411</v>
       </c>
@@ -16618,7 +16621,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>412</v>
       </c>
@@ -16649,7 +16652,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>413</v>
       </c>
@@ -16680,7 +16683,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>414</v>
       </c>
@@ -16711,7 +16714,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>415</v>
       </c>
@@ -16742,7 +16745,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>416</v>
       </c>
@@ -16773,7 +16776,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>417</v>
       </c>
@@ -16804,7 +16807,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>418</v>
       </c>
@@ -16835,7 +16838,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>419</v>
       </c>
@@ -16866,7 +16869,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>420</v>
       </c>
@@ -16897,7 +16900,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>421</v>
       </c>
@@ -16928,7 +16931,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>422</v>
       </c>
@@ -16959,7 +16962,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>423</v>
       </c>
@@ -16990,7 +16993,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>424</v>
       </c>
@@ -17021,7 +17024,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>425</v>
       </c>
@@ -17052,7 +17055,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>426</v>
       </c>
@@ -17083,7 +17086,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>427</v>
       </c>
@@ -17114,7 +17117,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>428</v>
       </c>
@@ -17145,7 +17148,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>429</v>
       </c>
@@ -17176,7 +17179,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>430</v>
       </c>
@@ -17207,7 +17210,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>431</v>
       </c>
@@ -17238,7 +17241,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>432</v>
       </c>
@@ -17269,7 +17272,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>433</v>
       </c>
@@ -17300,7 +17303,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>434</v>
       </c>
@@ -17331,7 +17334,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>435</v>
       </c>
@@ -17362,7 +17365,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>436</v>
       </c>
@@ -17393,7 +17396,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>437</v>
       </c>
@@ -17424,7 +17427,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>438</v>
       </c>
@@ -17455,7 +17458,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>439</v>
       </c>
@@ -17486,7 +17489,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>440</v>
       </c>
@@ -17517,7 +17520,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>441</v>
       </c>
@@ -17548,7 +17551,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>442</v>
       </c>
@@ -17579,7 +17582,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>443</v>
       </c>
@@ -17613,7 +17616,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>444</v>
       </c>
@@ -17647,7 +17650,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>445</v>
       </c>
@@ -17681,7 +17684,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>446</v>
       </c>
@@ -17715,7 +17718,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>447</v>
       </c>
@@ -17746,7 +17749,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>448</v>
       </c>
@@ -17777,7 +17780,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>449</v>
       </c>
@@ -17808,7 +17811,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>450</v>
       </c>
@@ -17839,7 +17842,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>451</v>
       </c>
@@ -17870,7 +17873,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>452</v>
       </c>
@@ -17901,7 +17904,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>453</v>
       </c>
@@ -17932,7 +17935,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>454</v>
       </c>
@@ -17963,7 +17966,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>455</v>
       </c>
@@ -17994,7 +17997,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>456</v>
       </c>
@@ -18025,7 +18028,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>457</v>
       </c>
@@ -18056,7 +18059,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>458</v>
       </c>
@@ -18087,7 +18090,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>459</v>
       </c>
@@ -18118,7 +18121,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>460</v>
       </c>
@@ -18152,7 +18155,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>461</v>
       </c>
@@ -18186,7 +18189,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>462</v>
       </c>
@@ -18220,7 +18223,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>463</v>
       </c>
@@ -18254,7 +18257,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>464</v>
       </c>
@@ -18288,7 +18291,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>465</v>
       </c>
@@ -18322,7 +18325,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>466</v>
       </c>
@@ -18353,7 +18356,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>467</v>
       </c>
@@ -18384,7 +18387,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>468</v>
       </c>
@@ -18415,7 +18418,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>469</v>
       </c>
@@ -18446,7 +18449,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>470</v>
       </c>
@@ -18477,7 +18480,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>471</v>
       </c>
@@ -18508,7 +18511,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>472</v>
       </c>
@@ -18542,7 +18545,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>473</v>
       </c>
@@ -18576,7 +18579,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>474</v>
       </c>
@@ -18610,7 +18613,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>475</v>
       </c>
@@ -18641,7 +18644,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>476</v>
       </c>
@@ -18672,7 +18675,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>477</v>
       </c>
@@ -18703,7 +18706,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>478</v>
       </c>
@@ -18734,7 +18737,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>479</v>
       </c>
@@ -18765,7 +18768,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>480</v>
       </c>
@@ -18799,7 +18802,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>481</v>
       </c>
@@ -18830,7 +18833,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>482</v>
       </c>
@@ -18861,7 +18864,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>483</v>
       </c>
@@ -18892,7 +18895,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>484</v>
       </c>
@@ -18923,7 +18926,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>485</v>
       </c>
@@ -18954,7 +18957,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>486</v>
       </c>
@@ -18985,7 +18988,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>487</v>
       </c>
@@ -19016,7 +19019,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>488</v>
       </c>
@@ -19047,7 +19050,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>489</v>
       </c>
@@ -19078,7 +19081,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>490</v>
       </c>
@@ -19109,7 +19112,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>491</v>
       </c>
@@ -19143,7 +19146,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>492</v>
       </c>
@@ -19177,7 +19180,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>493</v>
       </c>
@@ -19211,7 +19214,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>494</v>
       </c>
@@ -19242,7 +19245,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>495</v>
       </c>
@@ -19273,7 +19276,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>496</v>
       </c>
@@ -19304,7 +19307,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>497</v>
       </c>
@@ -19335,7 +19338,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>498</v>
       </c>
@@ -19366,7 +19369,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>499</v>
       </c>
@@ -19397,7 +19400,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>500</v>
       </c>
@@ -19428,7 +19431,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>501</v>
       </c>
@@ -19459,7 +19462,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>502</v>
       </c>
@@ -19490,7 +19493,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>503</v>
       </c>
@@ -19521,7 +19524,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>504</v>
       </c>
@@ -19552,7 +19555,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>505</v>
       </c>
@@ -19583,7 +19586,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>506</v>
       </c>
@@ -19614,7 +19617,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>507</v>
       </c>
@@ -19648,7 +19651,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>508</v>
       </c>
@@ -19679,7 +19682,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>509</v>
       </c>
@@ -19710,7 +19713,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -19741,7 +19744,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>511</v>
       </c>
@@ -19772,7 +19775,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>512</v>
       </c>
@@ -19803,7 +19806,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>513</v>
       </c>
@@ -19834,7 +19837,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>514</v>
       </c>
@@ -19865,7 +19868,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>515</v>
       </c>
@@ -19896,7 +19899,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>516</v>
       </c>
@@ -19927,7 +19930,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>517</v>
       </c>
@@ -19958,7 +19961,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>518</v>
       </c>
@@ -19989,7 +19992,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>519</v>
       </c>
@@ -20020,7 +20023,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>520</v>
       </c>
@@ -20051,7 +20054,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>521</v>
       </c>
@@ -20082,7 +20085,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>522</v>
       </c>
@@ -20113,7 +20116,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>523</v>
       </c>
@@ -20144,7 +20147,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>524</v>
       </c>
@@ -20175,7 +20178,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>525</v>
       </c>
@@ -20206,7 +20209,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>526</v>
       </c>
@@ -20240,7 +20243,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>527</v>
       </c>
@@ -20271,7 +20274,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>528</v>
       </c>
@@ -20302,7 +20305,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>529</v>
       </c>
@@ -20333,7 +20336,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>530</v>
       </c>
@@ -20364,7 +20367,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>531</v>
       </c>
@@ -20395,7 +20398,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>532</v>
       </c>
@@ -20426,7 +20429,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>533</v>
       </c>
@@ -20457,7 +20460,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>534</v>
       </c>
@@ -20491,7 +20494,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>535</v>
       </c>
@@ -20522,7 +20525,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>536</v>
       </c>
@@ -20553,7 +20556,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>537</v>
       </c>
@@ -20587,7 +20590,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>538</v>
       </c>
@@ -20618,7 +20621,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>539</v>
       </c>
@@ -20649,7 +20652,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>540</v>
       </c>
@@ -20680,7 +20683,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>541</v>
       </c>
@@ -20711,7 +20714,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>542</v>
       </c>
@@ -20742,7 +20745,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>543</v>
       </c>
@@ -20773,7 +20776,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>544</v>
       </c>
@@ -20804,7 +20807,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>545</v>
       </c>
@@ -20835,7 +20838,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>546</v>
       </c>
@@ -20866,7 +20869,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>547</v>
       </c>
@@ -20897,7 +20900,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>548</v>
       </c>
@@ -20928,7 +20931,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>549</v>
       </c>
@@ -20959,7 +20962,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>550</v>
       </c>
@@ -20990,7 +20993,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>551</v>
       </c>
@@ -21024,7 +21027,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>552</v>
       </c>
@@ -21058,7 +21061,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>553</v>
       </c>
@@ -21089,7 +21092,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>554</v>
       </c>
@@ -21120,7 +21123,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>555</v>
       </c>
@@ -21151,7 +21154,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>556</v>
       </c>
@@ -21182,7 +21185,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>557</v>
       </c>
@@ -21213,7 +21216,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>558</v>
       </c>
@@ -21244,7 +21247,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>559</v>
       </c>
@@ -21275,7 +21278,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>560</v>
       </c>
@@ -21306,7 +21309,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>561</v>
       </c>
@@ -21337,7 +21340,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>562</v>
       </c>
@@ -21368,7 +21371,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>563</v>
       </c>
@@ -21399,7 +21402,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>564</v>
       </c>
@@ -21430,7 +21433,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>565</v>
       </c>
@@ -21461,7 +21464,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>566</v>
       </c>
@@ -21492,7 +21495,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>567</v>
       </c>
@@ -21523,7 +21526,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>568</v>
       </c>
@@ -21554,7 +21557,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>569</v>
       </c>
@@ -21585,7 +21588,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>570</v>
       </c>
@@ -21616,7 +21619,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>571</v>
       </c>
@@ -21647,7 +21650,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>572</v>
       </c>
@@ -21678,7 +21681,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>573</v>
       </c>
@@ -21709,7 +21712,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>574</v>
       </c>
@@ -21740,7 +21743,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>575</v>
       </c>
@@ -21771,7 +21774,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>576</v>
       </c>
@@ -21802,7 +21805,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>577</v>
       </c>
@@ -21833,7 +21836,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>578</v>
       </c>
@@ -21864,7 +21867,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>579</v>
       </c>
@@ -21895,7 +21898,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>580</v>
       </c>
@@ -21926,7 +21929,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>581</v>
       </c>
@@ -21957,7 +21960,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>582</v>
       </c>
@@ -21988,7 +21991,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>583</v>
       </c>
@@ -22019,7 +22022,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>584</v>
       </c>
@@ -22050,7 +22053,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>585</v>
       </c>
@@ -22081,7 +22084,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>586</v>
       </c>
@@ -22112,7 +22115,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>587</v>
       </c>
@@ -22143,7 +22146,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>588</v>
       </c>
@@ -22174,7 +22177,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>589</v>
       </c>
@@ -22205,7 +22208,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>590</v>
       </c>
@@ -22236,7 +22239,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>591</v>
       </c>
@@ -22270,7 +22273,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>592</v>
       </c>
@@ -22304,7 +22307,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>593</v>
       </c>
@@ -22338,7 +22341,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>594</v>
       </c>
@@ -22372,7 +22375,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>595</v>
       </c>
@@ -22403,7 +22406,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>596</v>
       </c>
@@ -22437,7 +22440,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>597</v>
       </c>
@@ -22468,7 +22471,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>598</v>
       </c>
@@ -22499,7 +22502,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>599</v>
       </c>
@@ -22530,7 +22533,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>600</v>
       </c>
@@ -22561,7 +22564,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>601</v>
       </c>
@@ -22592,7 +22595,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>602</v>
       </c>
@@ -22623,7 +22626,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>603</v>
       </c>
@@ -22654,7 +22657,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>604</v>
       </c>
@@ -22685,7 +22688,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>605</v>
       </c>
@@ -22716,7 +22719,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>606</v>
       </c>
@@ -22747,7 +22750,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>607</v>
       </c>
@@ -22778,7 +22781,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>608</v>
       </c>
@@ -22809,7 +22812,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>609</v>
       </c>
@@ -22840,7 +22843,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>610</v>
       </c>
@@ -22871,7 +22874,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>611</v>
       </c>
@@ -22902,7 +22905,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>612</v>
       </c>
@@ -22933,7 +22936,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>613</v>
       </c>
@@ -22964,7 +22967,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>614</v>
       </c>
@@ -22995,7 +22998,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>615</v>
       </c>
@@ -23026,7 +23029,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>616</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>617</v>
       </c>
@@ -23088,7 +23091,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>618</v>
       </c>
@@ -23119,7 +23122,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>619</v>
       </c>
@@ -23150,7 +23153,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>620</v>
       </c>
@@ -23181,7 +23184,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>621</v>
       </c>
@@ -23212,7 +23215,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>622</v>
       </c>
@@ -23246,7 +23249,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>623</v>
       </c>
@@ -23280,7 +23283,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>624</v>
       </c>
@@ -23314,7 +23317,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>625</v>
       </c>
@@ -23348,7 +23351,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>626</v>
       </c>
@@ -23382,7 +23385,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>627</v>
       </c>
@@ -23416,7 +23419,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>628</v>
       </c>
@@ -23450,7 +23453,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>629</v>
       </c>
@@ -23484,7 +23487,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>630</v>
       </c>
@@ -23518,7 +23521,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>631</v>
       </c>
@@ -23552,7 +23555,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>632</v>
       </c>
@@ -23586,7 +23589,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>633</v>
       </c>
@@ -23617,7 +23620,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>634</v>
       </c>
@@ -23648,7 +23651,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>635</v>
       </c>
@@ -23679,7 +23682,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>636</v>
       </c>
@@ -23710,7 +23713,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>637</v>
       </c>
@@ -23744,7 +23747,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>638</v>
       </c>
@@ -23775,7 +23778,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>639</v>
       </c>
@@ -23806,7 +23809,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>640</v>
       </c>
@@ -23837,7 +23840,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>641</v>
       </c>
@@ -23868,7 +23871,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>642</v>
       </c>
@@ -23899,7 +23902,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>643</v>
       </c>
@@ -23933,7 +23936,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>644</v>
       </c>
@@ -23967,7 +23970,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>645</v>
       </c>
@@ -24001,7 +24004,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>646</v>
       </c>
@@ -24035,7 +24038,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>647</v>
       </c>
@@ -24069,7 +24072,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>648</v>
       </c>
@@ -24103,7 +24106,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>649</v>
       </c>
@@ -24137,7 +24140,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>650</v>
       </c>
@@ -24171,7 +24174,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>651</v>
       </c>
@@ -24205,7 +24208,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>652</v>
       </c>
@@ -24239,7 +24242,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>653</v>
       </c>
@@ -24273,7 +24276,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>654</v>
       </c>
@@ -24307,7 +24310,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>655</v>
       </c>
@@ -24341,7 +24344,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>656</v>
       </c>
@@ -24375,7 +24378,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>657</v>
       </c>
@@ -24406,7 +24409,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>658</v>
       </c>
@@ -24440,7 +24443,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>659</v>
       </c>
@@ -24474,7 +24477,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>660</v>
       </c>
@@ -24508,7 +24511,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>661</v>
       </c>
@@ -24539,7 +24542,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>662</v>
       </c>
@@ -24570,7 +24573,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>663</v>
       </c>
@@ -24601,7 +24604,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>664</v>
       </c>
@@ -24632,7 +24635,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>665</v>
       </c>
@@ -24663,7 +24666,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>666</v>
       </c>
@@ -24694,7 +24697,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>667</v>
       </c>
@@ -24725,7 +24728,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>668</v>
       </c>
@@ -24756,7 +24759,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>669</v>
       </c>
@@ -24787,7 +24790,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>670</v>
       </c>
@@ -24821,7 +24824,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>671</v>
       </c>
@@ -24855,7 +24858,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>672</v>
       </c>
@@ -24889,7 +24892,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>673</v>
       </c>
@@ -24923,7 +24926,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>41</v>
       </c>
@@ -24957,7 +24960,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>70</v>
       </c>
@@ -24991,7 +24994,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>75</v>
       </c>
@@ -25025,7 +25028,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>79</v>
       </c>
@@ -25059,7 +25062,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>81</v>
       </c>
@@ -25093,7 +25096,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>82</v>
       </c>
@@ -25127,7 +25130,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>83</v>
       </c>
@@ -25161,7 +25164,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>86</v>
       </c>
@@ -25195,7 +25198,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>87</v>
       </c>
@@ -25229,7 +25232,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>90</v>
       </c>
@@ -25263,7 +25266,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>38</v>
       </c>
@@ -25297,7 +25300,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>39</v>
       </c>
@@ -25331,7 +25334,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>40</v>
       </c>
@@ -25365,7 +25368,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>42</v>
       </c>
@@ -25399,7 +25402,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>69</v>
       </c>
@@ -25433,7 +25436,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>72</v>
       </c>
@@ -25467,7 +25470,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>73</v>
       </c>
@@ -25501,7 +25504,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>74</v>
       </c>
@@ -25535,7 +25538,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>76</v>
       </c>
@@ -25569,7 +25572,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>77</v>
       </c>
@@ -25603,7 +25606,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>78</v>
       </c>
@@ -25637,7 +25640,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>80</v>
       </c>
@@ -25671,7 +25674,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>84</v>
       </c>
@@ -25705,7 +25708,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>85</v>
       </c>
@@ -25739,7 +25742,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>88</v>
       </c>
@@ -25773,7 +25776,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>89</v>
       </c>
@@ -25807,7 +25810,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>91</v>
       </c>
@@ -25841,7 +25844,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>71</v>
       </c>
@@ -25875,7 +25878,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>121</v>
       </c>
@@ -25909,7 +25912,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>122</v>
       </c>
@@ -25943,7 +25946,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>123</v>
       </c>
@@ -25977,7 +25980,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>124</v>
       </c>
@@ -26011,7 +26014,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1396</v>
       </c>
@@ -26045,7 +26048,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1397</v>
       </c>
@@ -26079,7 +26082,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1398</v>
       </c>
@@ -26113,7 +26116,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1399</v>
       </c>
@@ -26147,7 +26150,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1400</v>
       </c>
@@ -26181,7 +26184,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1401</v>
       </c>
@@ -26215,7 +26218,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1402</v>
       </c>
@@ -26249,7 +26252,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>0</v>
       </c>
@@ -26283,7 +26286,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>2</v>
       </c>
@@ -26317,7 +26320,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>3</v>
       </c>
@@ -26351,7 +26354,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>12</v>
       </c>
@@ -26385,7 +26388,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>16</v>
       </c>
@@ -26419,7 +26422,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>18</v>
       </c>
@@ -26453,7 +26456,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>19</v>
       </c>
@@ -26487,7 +26490,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>20</v>
       </c>
@@ -26521,7 +26524,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>26</v>
       </c>
@@ -26555,7 +26558,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>27</v>
       </c>
@@ -26589,7 +26592,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>1</v>
       </c>
@@ -26623,7 +26626,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>4</v>
       </c>
@@ -26657,7 +26660,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>5</v>
       </c>
@@ -26691,7 +26694,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>8</v>
       </c>
@@ -26725,7 +26728,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>13</v>
       </c>
@@ -26759,7 +26762,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>21</v>
       </c>
@@ -26793,7 +26796,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>22</v>
       </c>
@@ -26827,7 +26830,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>24</v>
       </c>
@@ -26861,7 +26864,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>6</v>
       </c>
@@ -26895,7 +26898,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>7</v>
       </c>
@@ -26929,7 +26932,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>9</v>
       </c>
@@ -26963,7 +26966,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>10</v>
       </c>
@@ -26997,7 +27000,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>11</v>
       </c>
@@ -27031,7 +27034,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>14</v>
       </c>
@@ -27065,7 +27068,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>15</v>
       </c>
@@ -27099,7 +27102,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>17</v>
       </c>
@@ -27133,7 +27136,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>23</v>
       </c>
@@ -27167,7 +27170,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>25</v>
       </c>
@@ -27201,7 +27204,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="str">
         <f>_xlfn.CONCAT(H683,".jpg")</f>
         <v>NZAC04254430.jpg</v>
@@ -27236,7 +27239,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="str">
         <f t="shared" ref="A684:A747" si="29">_xlfn.CONCAT(H684,".jpg")</f>
         <v>NZAC04254430-2.jpg</v>
@@ -27271,7 +27274,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254432.jpg</v>
@@ -27306,7 +27309,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254432-2.jpg</v>
@@ -27341,7 +27344,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254433.jpg</v>
@@ -27376,7 +27379,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254433-2.jpg</v>
@@ -27411,7 +27414,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254436.jpg</v>
@@ -27446,7 +27449,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254436-2.jpg</v>
@@ -27481,7 +27484,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254437.jpg</v>
@@ -27516,7 +27519,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254437-2.jpg</v>
@@ -27551,7 +27554,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254438.jpg</v>
@@ -27586,7 +27589,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254438-2.jpg</v>
@@ -27621,7 +27624,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254439.jpg</v>
@@ -27656,7 +27659,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254440.jpg</v>
@@ -27691,7 +27694,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254442.jpg</v>
@@ -27726,7 +27729,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254443.jpg</v>
@@ -27761,7 +27764,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254444.jpg</v>
@@ -27796,7 +27799,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254445.jpg</v>
@@ -27831,7 +27834,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254446.jpg</v>
@@ -27866,7 +27869,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254447.jpg</v>
@@ -27901,7 +27904,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254448.jpg</v>
@@ -27936,7 +27939,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254449.jpg</v>
@@ -27971,7 +27974,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254450.jpg</v>
@@ -28006,7 +28009,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254453.jpg</v>
@@ -28041,7 +28044,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254454.jpg</v>
@@ -28076,7 +28079,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254455.jpg</v>
@@ -28111,7 +28114,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254456.jpg</v>
@@ -28146,7 +28149,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254457.jpg</v>
@@ -28181,7 +28184,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254458.jpg</v>
@@ -28216,7 +28219,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254461.jpg</v>
@@ -28251,7 +28254,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254462.jpg</v>
@@ -28286,7 +28289,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254463.jpg</v>
@@ -28321,7 +28324,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254464.jpg</v>
@@ -28356,7 +28359,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254465.jpg</v>
@@ -28391,7 +28394,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254467.jpg</v>
@@ -28426,7 +28429,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254469.jpg</v>
@@ -28461,7 +28464,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254470.jpg</v>
@@ -28496,7 +28499,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254472.jpg</v>
@@ -28531,7 +28534,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254474.jpg</v>
@@ -28566,7 +28569,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04257143.jpg</v>
@@ -28601,7 +28604,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254482.jpg</v>
@@ -28636,7 +28639,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254483.jpg</v>
@@ -28671,7 +28674,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254484.jpg</v>
@@ -28706,7 +28709,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254485.jpg</v>
@@ -28741,7 +28744,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254491.jpg</v>
@@ -28776,7 +28779,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254492.jpg</v>
@@ -28811,7 +28814,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254493.jpg</v>
@@ -28846,7 +28849,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254494.jpg</v>
@@ -28881,7 +28884,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254496.jpg</v>
@@ -28916,7 +28919,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254497.jpg</v>
@@ -28951,7 +28954,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254498.jpg</v>
@@ -28986,7 +28989,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254501.jpg</v>
@@ -29021,7 +29024,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254502.jpg</v>
@@ -29056,7 +29059,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254503.jpg</v>
@@ -29091,7 +29094,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254504.jpg</v>
@@ -29126,7 +29129,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254505.jpg</v>
@@ -29161,7 +29164,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254419.jpg</v>
@@ -29196,7 +29199,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254420.jpg</v>
@@ -29231,7 +29234,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254424.jpg</v>
@@ -29266,7 +29269,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254425.jpg</v>
@@ -29301,7 +29304,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254426.jpg</v>
@@ -29336,7 +29339,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254427.jpg</v>
@@ -29371,7 +29374,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254428.jpg</v>
@@ -29406,7 +29409,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254429.jpg</v>
@@ -29441,7 +29444,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="str">
         <f t="shared" si="29"/>
         <v>NZAC04254513.jpg</v>
@@ -29476,7 +29479,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="str">
         <f t="shared" ref="A748:A811" si="32">_xlfn.CONCAT(H748,".jpg")</f>
         <v>NZAC04254514.jpg</v>
@@ -29511,7 +29514,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04254516.jpg</v>
@@ -29546,7 +29549,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04254517.jpg</v>
@@ -29581,7 +29584,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04254518.jpg</v>
@@ -29616,7 +29619,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04254519.jpg</v>
@@ -29651,7 +29654,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04253901.jpg</v>
@@ -29686,7 +29689,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04253902.jpg</v>
@@ -29721,7 +29724,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04253903.jpg</v>
@@ -29756,7 +29759,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04253904.jpg</v>
@@ -29791,7 +29794,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04253906.jpg</v>
@@ -29826,7 +29829,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04253907.jpg</v>
@@ -29861,7 +29864,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04253908.jpg</v>
@@ -29896,7 +29899,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248746.jpg</v>
@@ -29931,7 +29934,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248747.jpg</v>
@@ -29966,7 +29969,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248748.jpg</v>
@@ -30001,7 +30004,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248749.jpg</v>
@@ -30036,7 +30039,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248750.jpg</v>
@@ -30071,7 +30074,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248751.jpg</v>
@@ -30106,7 +30109,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248752.jpg</v>
@@ -30141,7 +30144,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248753.jpg</v>
@@ -30176,7 +30179,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248754.jpg</v>
@@ -30211,7 +30214,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248755.jpg</v>
@@ -30246,7 +30249,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248756.jpg</v>
@@ -30281,7 +30284,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248757.jpg</v>
@@ -30316,7 +30319,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248758.jpg</v>
@@ -30351,7 +30354,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248759.jpg</v>
@@ -30386,7 +30389,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248760.jpg</v>
@@ -30421,7 +30424,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248761.jpg</v>
@@ -30456,7 +30459,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248763.jpg</v>
@@ -30491,7 +30494,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248764.jpg</v>
@@ -30526,7 +30529,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248765.jpg</v>
@@ -30561,7 +30564,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248766.jpg</v>
@@ -30596,7 +30599,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248767.jpg</v>
@@ -30631,7 +30634,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248768.jpg</v>
@@ -30666,7 +30669,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248769.jpg</v>
@@ -30701,7 +30704,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248770.jpg</v>
@@ -30736,7 +30739,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248771.jpg</v>
@@ -30771,7 +30774,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248772.jpg</v>
@@ -30806,7 +30809,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248773.jpg</v>
@@ -30841,7 +30844,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248774.jpg</v>
@@ -30876,7 +30879,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248775.jpg</v>
@@ -30911,7 +30914,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248776.jpg</v>
@@ -30946,7 +30949,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248777.jpg</v>
@@ -30981,7 +30984,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248778.jpg</v>
@@ -31016,7 +31019,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248779.jpg</v>
@@ -31051,7 +31054,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248780.jpg</v>
@@ -31086,7 +31089,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248781.jpg</v>
@@ -31121,7 +31124,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248782.jpg</v>
@@ -31156,7 +31159,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248783.jpg</v>
@@ -31191,7 +31194,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248784.jpg</v>
@@ -31226,7 +31229,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248785.jpg</v>
@@ -31261,7 +31264,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248786.jpg</v>
@@ -31296,7 +31299,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248787.jpg</v>
@@ -31331,7 +31334,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248788.jpg</v>
@@ -31366,7 +31369,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248789.jpg</v>
@@ -31401,7 +31404,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248790.jpg</v>
@@ -31436,7 +31439,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248791.jpg</v>
@@ -31471,7 +31474,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248792.jpg</v>
@@ -31506,7 +31509,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248793.jpg</v>
@@ -31541,7 +31544,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248794.jpg</v>
@@ -31576,7 +31579,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248795.jpg</v>
@@ -31611,7 +31614,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248796.jpg</v>
@@ -31646,7 +31649,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248797.jpg</v>
@@ -31681,7 +31684,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="str">
         <f t="shared" si="32"/>
         <v>NZAC04248798.jpg</v>
@@ -31716,7 +31719,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="str">
         <f t="shared" ref="A812:A871" si="35">_xlfn.CONCAT(H812,".jpg")</f>
         <v>NZAC04248799.jpg</v>
@@ -31751,7 +31754,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248800.jpg</v>
@@ -31786,7 +31789,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248801.jpg</v>
@@ -31821,7 +31824,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248802.jpg</v>
@@ -31856,7 +31859,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248803.jpg</v>
@@ -31891,7 +31894,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248804.jpg</v>
@@ -31926,7 +31929,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248804-2.jpg</v>
@@ -31961,7 +31964,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248805.jpg</v>
@@ -31996,7 +31999,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248806.jpg</v>
@@ -32031,7 +32034,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248807.jpg</v>
@@ -32066,7 +32069,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248808.jpg</v>
@@ -32101,7 +32104,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248809.jpg</v>
@@ -32136,7 +32139,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248810.jpg</v>
@@ -32171,7 +32174,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248811.jpg</v>
@@ -32206,7 +32209,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248812.jpg</v>
@@ -32241,7 +32244,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248813.jpg</v>
@@ -32276,7 +32279,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248814.jpg</v>
@@ -32311,7 +32314,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248815.jpg</v>
@@ -32346,7 +32349,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248816.jpg</v>
@@ -32381,7 +32384,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248817.jpg</v>
@@ -32416,7 +32419,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248818.jpg</v>
@@ -32451,7 +32454,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248819.jpg</v>
@@ -32486,7 +32489,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248820.jpg</v>
@@ -32521,7 +32524,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248821.jpg</v>
@@ -32556,7 +32559,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248822.jpg</v>
@@ -32591,7 +32594,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248823.jpg</v>
@@ -32626,7 +32629,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248824.jpg</v>
@@ -32661,7 +32664,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248825.jpg</v>
@@ -32696,7 +32699,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248826.jpg</v>
@@ -32731,7 +32734,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04248827.jpg</v>
@@ -32766,7 +32769,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204128.jpg</v>
@@ -32801,7 +32804,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204129.jpg</v>
@@ -32836,7 +32839,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204130.jpg</v>
@@ -32871,7 +32874,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204131.jpg</v>
@@ -32906,7 +32909,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204133.jpg</v>
@@ -32941,7 +32944,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204137.jpg</v>
@@ -32976,7 +32979,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204138.jpg</v>
@@ -33011,7 +33014,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204140.jpg</v>
@@ -33046,7 +33049,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204141.jpg</v>
@@ -33081,7 +33084,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204142.jpg</v>
@@ -33116,7 +33119,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204143.jpg</v>
@@ -33151,7 +33154,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204144.jpg</v>
@@ -33186,7 +33189,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204145.jpg</v>
@@ -33221,7 +33224,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204146.jpg</v>
@@ -33256,7 +33259,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204147.jpg</v>
@@ -33291,7 +33294,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204148.jpg</v>
@@ -33326,7 +33329,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204149.jpg</v>
@@ -33361,7 +33364,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204150.jpg</v>
@@ -33396,7 +33399,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204151.jpg</v>
@@ -33431,7 +33434,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204152.jpg</v>
@@ -33466,7 +33469,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204153.jpg</v>
@@ -33501,7 +33504,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204154.jpg</v>
@@ -33536,7 +33539,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204155.jpg</v>
@@ -33571,7 +33574,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204156.jpg</v>
@@ -33606,7 +33609,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204157.jpg</v>
@@ -33641,7 +33644,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204158.jpg</v>
@@ -33676,7 +33679,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204159.jpg</v>
@@ -33711,7 +33714,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204160.jpg</v>
@@ -33746,7 +33749,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04204161.jpg</v>
@@ -33781,7 +33784,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="str">
         <f t="shared" si="35"/>
         <v>NZAC04253899.jpg</v>
@@ -33817,13 +33820,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J871" xr:uid="{C0C0BDAE-B352-4827-B1B0-483150E67553}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Trupanea"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J871" xr:uid="{C0C0BDAE-B352-4827-B1B0-483150E67553}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J682">
     <sortCondition ref="E2:E682"/>
   </sortState>
